--- a/heliostrome/jip_project/results/sensitivity_Bangladesh_soil.xlsx
+++ b/heliostrome/jip_project/results/sensitivity_Bangladesh_soil.xlsx
@@ -948,10 +948,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2136,10 +2134,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3324,10 +3320,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -4512,10 +4506,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -5700,10 +5692,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -6888,10 +6878,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -8753,10 +8741,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -9941,10 +9927,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -11129,10 +11113,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -12317,10 +12299,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -13505,10 +13485,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -14693,10 +14671,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -15881,10 +15857,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -17069,10 +17043,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
